--- a/assets/valuation_engine/input/NVIDIA_CORP.xlsx
+++ b/assets/valuation_engine/input/NVIDIA_CORP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tao_project\dashboard_finance_metrics\assets\valuation_engine\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E1CE17-EF86-466B-AAE3-3A860AEBC5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905DBE9A-20A0-4472-B0D8-4208CC0F04F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,18 @@
     <sheet name="quarterly_data" sheetId="2" r:id="rId2"/>
     <sheet name="ratio_data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1127,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,9 +1179,9 @@
     <col min="35" max="35" width="23" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="11.140625" bestFit="1" customWidth="1"/>
@@ -1286,13 +1297,13 @@
         <v>33</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>26</v>
@@ -1417,13 +1428,13 @@
         <v>581090000</v>
       </c>
       <c r="AL2">
+        <v>3997930000</v>
+      </c>
+      <c r="AM2">
         <v>616371000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>648299000</v>
-      </c>
-      <c r="AN2">
-        <v>3997930000</v>
       </c>
       <c r="AO2">
         <v>1002605000</v>
@@ -1548,13 +1559,13 @@
         <v>135219000</v>
       </c>
       <c r="AL3">
+        <v>962039000</v>
+      </c>
+      <c r="AM3">
         <v>613474000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>154862000</v>
-      </c>
-      <c r="AN3">
-        <v>962039000</v>
       </c>
       <c r="AO3">
         <v>231524000</v>
@@ -1679,13 +1690,13 @@
         <v>286792000</v>
       </c>
       <c r="AL4">
+        <v>1978556000</v>
+      </c>
+      <c r="AM4">
         <v>615552000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>328892000</v>
-      </c>
-      <c r="AN4">
-        <v>1978556000</v>
       </c>
       <c r="AO4">
         <v>479245000</v>
@@ -1810,13 +1821,13 @@
         <v>465065000</v>
       </c>
       <c r="AL5">
+        <v>3044736000</v>
+      </c>
+      <c r="AM5">
         <v>614688000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>525982000</v>
-      </c>
-      <c r="AN5">
-        <v>3044736000</v>
       </c>
       <c r="AO5">
         <v>735743000</v>
@@ -1941,13 +1952,13 @@
         <v>562536000</v>
       </c>
       <c r="AL6">
+        <v>4280159000</v>
+      </c>
+      <c r="AM6">
         <v>624957000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>648239000</v>
-      </c>
-      <c r="AN6">
-        <v>4280159000</v>
       </c>
       <c r="AO6">
         <v>1147282000</v>
@@ -2072,13 +2083,13 @@
         <v>60437000</v>
       </c>
       <c r="AL7">
+        <v>924877000</v>
+      </c>
+      <c r="AM7">
         <v>623786000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>72826000</v>
-      </c>
-      <c r="AN7">
-        <v>924877000</v>
       </c>
       <c r="AO7">
         <v>283902000</v>
@@ -2203,13 +2214,13 @@
         <v>179483000</v>
       </c>
       <c r="AL8">
+        <v>1969147000</v>
+      </c>
+      <c r="AM8">
         <v>623397000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>212449000</v>
-      </c>
-      <c r="AN8">
-        <v>1969147000</v>
       </c>
       <c r="AO8">
         <v>565095000</v>
@@ -2334,13 +2345,13 @@
         <v>388563000</v>
       </c>
       <c r="AL9">
+        <v>3173257000</v>
+      </c>
+      <c r="AM9">
         <v>625973000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>464666000</v>
-      </c>
-      <c r="AN9">
-        <v>3173257000</v>
       </c>
       <c r="AO9">
         <v>849275000</v>
@@ -2465,13 +2476,13 @@
         <v>439990000</v>
       </c>
       <c r="AL10">
+        <v>4130162000</v>
+      </c>
+      <c r="AM10">
         <v>594517000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>496227000</v>
-      </c>
-      <c r="AN10">
-        <v>4130162000</v>
       </c>
       <c r="AO10">
         <v>1335834000</v>
@@ -2596,13 +2607,13 @@
         <v>77891000</v>
       </c>
       <c r="AL11">
+        <v>954739000</v>
+      </c>
+      <c r="AM11">
         <v>619302000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>82781000</v>
-      </c>
-      <c r="AN11">
-        <v>954739000</v>
       </c>
       <c r="AO11">
         <v>327161000</v>
@@ -2727,13 +2738,13 @@
         <v>174339000</v>
       </c>
       <c r="AL12">
+        <v>1931977000</v>
+      </c>
+      <c r="AM12">
         <v>606051000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>188315000</v>
-      </c>
-      <c r="AN12">
-        <v>1931977000</v>
       </c>
       <c r="AO12">
         <v>658899000</v>
@@ -2858,13 +2869,13 @@
         <v>293073000</v>
       </c>
       <c r="AL13">
+        <v>2985944000</v>
+      </c>
+      <c r="AM13">
         <v>600108000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>329303000</v>
-      </c>
-      <c r="AN13">
-        <v>2985944000</v>
       </c>
       <c r="AO13">
         <v>999193000</v>
@@ -2989,13 +3000,13 @@
         <v>630587000</v>
       </c>
       <c r="AL14">
+        <v>4681507000</v>
+      </c>
+      <c r="AM14">
         <v>563068000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>758989000</v>
-      </c>
-      <c r="AN14">
-        <v>4681507000</v>
       </c>
       <c r="AO14">
         <v>1359725000</v>
@@ -3120,13 +3131,13 @@
         <v>136516000</v>
       </c>
       <c r="AL15">
+        <v>1102787000</v>
+      </c>
+      <c r="AM15">
         <v>570422000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>151359000</v>
-      </c>
-      <c r="AN15">
-        <v>1102787000</v>
       </c>
       <c r="AO15">
         <v>334263000</v>
@@ -3251,13 +3262,13 @@
         <v>264492000</v>
       </c>
       <c r="AL16">
+        <v>2205611000</v>
+      </c>
+      <c r="AM16">
         <v>570599000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>314538000</v>
-      </c>
-      <c r="AN16">
-        <v>2205611000</v>
       </c>
       <c r="AO16">
         <v>671387000</v>
@@ -3382,13 +3393,13 @@
         <v>437459000</v>
       </c>
       <c r="AL17">
+        <v>3430993000</v>
+      </c>
+      <c r="AM17">
         <v>565653000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>527853000</v>
-      </c>
-      <c r="AN17">
-        <v>3430993000</v>
       </c>
       <c r="AO17">
         <v>1011472000</v>
@@ -3513,13 +3524,13 @@
         <v>614000000</v>
       </c>
       <c r="AL18">
+        <v>5010000000</v>
+      </c>
+      <c r="AM18">
         <v>569000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>747000000</v>
-      </c>
-      <c r="AN18">
-        <v>5010000000</v>
       </c>
       <c r="AO18">
         <v>1331000000</v>
@@ -3644,13 +3655,13 @@
         <v>134000000</v>
       </c>
       <c r="AL19">
+        <v>1151000000</v>
+      </c>
+      <c r="AM19">
         <v>568000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>176000000</v>
-      </c>
-      <c r="AN19">
-        <v>1151000000</v>
       </c>
       <c r="AO19">
         <v>339000000</v>
@@ -3775,13 +3786,13 @@
         <v>160000000</v>
       </c>
       <c r="AL20">
+        <v>2304000000</v>
+      </c>
+      <c r="AM20">
         <v>563000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>250000000</v>
-      </c>
-      <c r="AN20">
-        <v>2304000000</v>
       </c>
       <c r="AO20">
         <v>658000000</v>
@@ -3906,13 +3917,13 @@
         <v>406000000</v>
       </c>
       <c r="AL21">
+        <v>3609000000</v>
+      </c>
+      <c r="AM21">
         <v>563000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>495000000</v>
-      </c>
-      <c r="AN21">
-        <v>3609000000</v>
       </c>
       <c r="AO21">
         <v>987000000</v>
@@ -4037,13 +4048,13 @@
         <v>1666000000</v>
       </c>
       <c r="AL22">
+        <v>6910000000</v>
+      </c>
+      <c r="AM22">
         <v>649000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>1934000000</v>
-      </c>
-      <c r="AN22">
-        <v>6910000000</v>
       </c>
       <c r="AO22">
         <v>1463000000</v>
@@ -4168,13 +4179,13 @@
         <v>196000000</v>
       </c>
       <c r="AL23">
+        <v>1305000000</v>
+      </c>
+      <c r="AM23">
         <v>597000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>245000000</v>
-      </c>
-      <c r="AN23">
-        <v>1305000000</v>
       </c>
       <c r="AO23">
         <v>346000000</v>
@@ -4299,13 +4310,13 @@
         <v>449000000</v>
       </c>
       <c r="AL24">
+        <v>2733000000</v>
+      </c>
+      <c r="AM24">
         <v>617000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>561000000</v>
-      </c>
-      <c r="AN24">
-        <v>2733000000</v>
       </c>
       <c r="AO24">
         <v>697000000</v>
@@ -4430,13 +4441,13 @@
         <v>1012000000</v>
       </c>
       <c r="AL25">
+        <v>4737000000</v>
+      </c>
+      <c r="AM25">
         <v>636000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>1201000000</v>
-      </c>
-      <c r="AN25">
-        <v>4737000000</v>
       </c>
       <c r="AO25">
         <v>1069000000</v>
@@ -4561,13 +4572,13 @@
         <v>3047000000</v>
       </c>
       <c r="AL26">
+        <v>9714000000</v>
+      </c>
+      <c r="AM26">
         <v>632000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>3210000000</v>
-      </c>
-      <c r="AN26">
-        <v>9714000000</v>
       </c>
       <c r="AO26">
         <v>1797000000</v>
@@ -4692,13 +4703,13 @@
         <v>507000000</v>
       </c>
       <c r="AL27">
+        <v>1937000000</v>
+      </c>
+      <c r="AM27">
         <v>641000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>554000000</v>
-      </c>
-      <c r="AN27">
-        <v>1937000000</v>
       </c>
       <c r="AO27">
         <v>411000000</v>
@@ -4823,13 +4834,13 @@
         <v>1091000000</v>
       </c>
       <c r="AL28">
+        <v>4167000000</v>
+      </c>
+      <c r="AM28">
         <v>637000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>1242000000</v>
-      </c>
-      <c r="AN28">
-        <v>4167000000</v>
       </c>
       <c r="AO28">
         <v>827000000</v>
@@ -4954,13 +4965,13 @@
         <v>1928000000</v>
       </c>
       <c r="AL29">
+        <v>6803000000</v>
+      </c>
+      <c r="AM29">
         <v>633000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>2137000000</v>
-      </c>
-      <c r="AN29">
-        <v>6803000000</v>
       </c>
       <c r="AO29">
         <v>1290000000</v>
@@ -5085,13 +5096,13 @@
         <v>4141000000</v>
       </c>
       <c r="AL30">
+        <v>11716000000</v>
+      </c>
+      <c r="AM30">
         <v>625000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>3804000000</v>
-      </c>
-      <c r="AN30">
-        <v>11716000000</v>
       </c>
       <c r="AO30">
         <v>2376000000</v>
@@ -5216,13 +5227,13 @@
         <v>1244000000</v>
       </c>
       <c r="AL31">
+        <v>3207000000</v>
+      </c>
+      <c r="AM31">
         <v>627000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>1295000000</v>
-      </c>
-      <c r="AN31">
-        <v>3207000000</v>
       </c>
       <c r="AO31">
         <v>542000000</v>
@@ -5347,13 +5358,13 @@
         <v>2345000000</v>
       </c>
       <c r="AL32">
+        <v>6330000000</v>
+      </c>
+      <c r="AM32">
         <v>627000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>2452000000</v>
-      </c>
-      <c r="AN32">
-        <v>6330000000</v>
       </c>
       <c r="AO32">
         <v>1124000000</v>
@@ -5478,13 +5489,13 @@
         <v>3575000000</v>
       </c>
       <c r="AL33">
+        <v>9511000000</v>
+      </c>
+      <c r="AM33">
         <v>626000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>3510000000</v>
-      </c>
-      <c r="AN33">
-        <v>9511000000</v>
       </c>
       <c r="AO33">
         <v>1729000000</v>
@@ -5609,13 +5620,13 @@
         <v>2796000000</v>
       </c>
       <c r="AL34">
+        <v>10918000000</v>
+      </c>
+      <c r="AM34">
         <v>618000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>2846000000</v>
-      </c>
-      <c r="AN34">
-        <v>10918000000</v>
       </c>
       <c r="AO34">
         <v>2829000000</v>
@@ -5740,13 +5751,13 @@
         <v>394000000</v>
       </c>
       <c r="AL35">
+        <v>2220000000</v>
+      </c>
+      <c r="AM35">
         <v>616000000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>358000000</v>
-      </c>
-      <c r="AN35">
-        <v>2220000000</v>
       </c>
       <c r="AO35">
         <v>674000000</v>
@@ -5871,13 +5882,13 @@
         <v>947000000</v>
       </c>
       <c r="AL36">
+        <v>4799000000</v>
+      </c>
+      <c r="AM36">
         <v>616000000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>929000000</v>
-      </c>
-      <c r="AN36">
-        <v>4799000000</v>
       </c>
       <c r="AO36">
         <v>1379000000</v>
@@ -6002,13 +6013,13 @@
         <v>1845000000</v>
       </c>
       <c r="AL37">
+        <v>7813000000</v>
+      </c>
+      <c r="AM37">
         <v>617000000</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>1856000000</v>
-      </c>
-      <c r="AN37">
-        <v>7813000000</v>
       </c>
       <c r="AO37">
         <v>2091000000</v>
@@ -6133,13 +6144,13 @@
         <v>4332000000</v>
       </c>
       <c r="AL38">
+        <v>16675000000</v>
+      </c>
+      <c r="AM38">
         <v>628000000</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>4532000000</v>
-      </c>
-      <c r="AN38">
-        <v>16675000000</v>
       </c>
       <c r="AO38">
         <v>3924000000</v>
@@ -6264,13 +6275,13 @@
         <v>2875000000</v>
       </c>
       <c r="AL39">
+        <v>11672000000</v>
+      </c>
+      <c r="AM39">
         <v>626000000</v>
       </c>
-      <c r="AM39">
+      <c r="AN39">
         <v>3025000000</v>
-      </c>
-      <c r="AN39">
-        <v>11672000000</v>
       </c>
       <c r="AO39">
         <v>2778000000</v>
@@ -6395,13 +6406,13 @@
         <v>9752000000</v>
       </c>
       <c r="AL40">
+        <v>26914000000</v>
+      </c>
+      <c r="AM40">
         <v>2535000000</v>
       </c>
-      <c r="AM40">
+      <c r="AN40">
         <v>10041000000</v>
-      </c>
-      <c r="AN40">
-        <v>26914000000</v>
       </c>
       <c r="AO40">
         <v>5268000000</v>
@@ -6526,13 +6537,13 @@
         <v>1912000000</v>
       </c>
       <c r="AL41">
+        <v>5661000000</v>
+      </c>
+      <c r="AM41">
         <v>632000000</v>
       </c>
-      <c r="AM41">
+      <c r="AN41">
         <v>1956000000</v>
-      </c>
-      <c r="AN41">
-        <v>5661000000</v>
       </c>
       <c r="AO41">
         <v>1153000000</v>
@@ -6657,13 +6668,13 @@
         <v>4285000000</v>
       </c>
       <c r="AL42">
+        <v>12168000000</v>
+      </c>
+      <c r="AM42">
         <v>2529000000</v>
       </c>
-      <c r="AM42">
+      <c r="AN42">
         <v>4400000000</v>
-      </c>
-      <c r="AN42">
-        <v>12168000000</v>
       </c>
       <c r="AO42">
         <v>2398000000</v>
@@ -6788,13 +6799,13 @@
         <v>6749000000</v>
       </c>
       <c r="AL43">
+        <v>19271000000</v>
+      </c>
+      <c r="AM43">
         <v>2532000000</v>
       </c>
-      <c r="AM43">
+      <c r="AN43">
         <v>7071000000</v>
-      </c>
-      <c r="AN43">
-        <v>19271000000</v>
       </c>
       <c r="AO43">
         <v>3802000000</v>
@@ -6919,13 +6930,13 @@
         <v>4368000000</v>
       </c>
       <c r="AL44">
+        <v>26974000000</v>
+      </c>
+      <c r="AM44">
         <v>2507000000</v>
       </c>
-      <c r="AM44">
+      <c r="AN44">
         <v>4224000000</v>
-      </c>
-      <c r="AN44">
-        <v>26974000000</v>
       </c>
       <c r="AO44">
         <v>7339000000</v>
@@ -7050,13 +7061,13 @@
         <v>1618000000</v>
       </c>
       <c r="AL45">
+        <v>8288000000</v>
+      </c>
+      <c r="AM45">
         <v>2537000000</v>
       </c>
-      <c r="AM45">
+      <c r="AN45">
         <v>1868000000</v>
-      </c>
-      <c r="AN45">
-        <v>8288000000</v>
       </c>
       <c r="AO45">
         <v>1618000000</v>
@@ -7181,13 +7192,13 @@
         <v>2274000000</v>
       </c>
       <c r="AL46">
+        <v>14992000000</v>
+      </c>
+      <c r="AM46">
         <v>2526000000</v>
       </c>
-      <c r="AM46">
+      <c r="AN46">
         <v>2367000000</v>
-      </c>
-      <c r="AN46">
-        <v>14992000000</v>
       </c>
       <c r="AO46">
         <v>3443000000</v>
@@ -7312,13 +7323,13 @@
         <v>2954000000</v>
       </c>
       <c r="AL47">
+        <v>20923000000</v>
+      </c>
+      <c r="AM47">
         <v>2517000000</v>
       </c>
-      <c r="AM47">
+      <c r="AN47">
         <v>2968000000</v>
-      </c>
-      <c r="AN47">
-        <v>20923000000</v>
       </c>
       <c r="AO47">
         <v>5387000000</v>
